--- a/public/data/db-source/evolution.xlsx
+++ b/public/data/db-source/evolution.xlsx
@@ -296,6 +296,21 @@
   </si>
   <si>
     <t>&lt;i&gt;a&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>bevnat-info</t>
+  </si>
+  <si>
+    <t>last_update</t>
+  </si>
+  <si>
+    <t>1706219962</t>
+  </si>
+  <si>
+    <t>1706239962</t>
   </si>
 </sst>
 </file>
@@ -1411,6 +1426,29 @@
         <v>92</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54">
+        <v>1759778989</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db-source/evolution.xlsx
+++ b/public/data/db-source/evolution.xlsx
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>1706239962</t>
+  </si>
+  <si>
+    <t>sensible_data</t>
+  </si>
+  <si>
+    <t>Les données sensibles sont des catégories particulières de données personnelles qui révèlent des informations hautement confidentielles, comme l'origine raciale ou ethnique, les opinions politiques, les croyances religieuses, la santé, la vie sexuelle, ou les données biométriques. Leur traitement est soumis à des règles strictes pour éviter toute discrimination ou atteinte à la vie privée.</t>
+  </si>
+  <si>
+    <t>Les données 2 sensibles sont des catégories particulières de données personnelles qui révèlent des informations hautement confidentielles, comme l'origine raciale ou ethnique, les opinions politiques, les croyances religieuses, la santé, la vie sexuelle, ou les données biométriques. Leur traitement est soumis à des règles strictes pour éviter toute discrimination ou atteinte à la vie privée.</t>
   </si>
 </sst>
 </file>
@@ -1449,6 +1458,29 @@
         <v>99</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55">
+        <v>1760952632</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db-source/evolution.xlsx
+++ b/public/data/db-source/evolution.xlsx
@@ -2858,6 +2858,12 @@
   </si>
   <si>
     <t>dep_sante___variable_550</t>
+  </si>
+  <si>
+    <t>Images aériennes sous partie 2</t>
+  </si>
+  <si>
+    <t>Images aériennes sous partie 2.1</t>
   </si>
 </sst>
 </file>
@@ -16029,6 +16035,29 @@
         <v>948</v>
       </c>
     </row>
+    <row r="889">
+      <c r="A889">
+        <v>1761859124</v>
+      </c>
+      <c r="B889" t="s">
+        <v>9</v>
+      </c>
+      <c r="C889" t="s">
+        <v>81</v>
+      </c>
+      <c r="D889" t="s">
+        <v>83</v>
+      </c>
+      <c r="F889" t="s">
+        <v>8</v>
+      </c>
+      <c r="G889" t="s">
+        <v>949</v>
+      </c>
+      <c r="H889" t="s">
+        <v>950</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db-source/evolution.xlsx
+++ b/public/data/db-source/evolution.xlsx
@@ -9539,6 +9539,9 @@
   </si>
   <si>
     <t>pdf_online, bevnat-info</t>
+  </si>
+  <si>
+    <t>dataset/accident_route.xlsx</t>
   </si>
 </sst>
 </file>
@@ -76407,6 +76410,369 @@
         <v>119</v>
       </c>
     </row>
+    <row r="3658">
+      <c r="A3658">
+        <v>1765279134</v>
+      </c>
+      <c r="B3658" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3658" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3658" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3658" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3658" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="3659">
+      <c r="A3659">
+        <v>1765279134</v>
+      </c>
+      <c r="B3659" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3659" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3659" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3659" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3659" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H3659" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="3660">
+      <c r="A3660">
+        <v>1765279134</v>
+      </c>
+      <c r="B3660" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3660" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3660" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3660" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3660" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="3661">
+      <c r="A3661">
+        <v>1765279134</v>
+      </c>
+      <c r="B3661" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3661" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3661" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3661" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3661" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="3662">
+      <c r="A3662">
+        <v>1765279134</v>
+      </c>
+      <c r="B3662" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3662" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3662" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3662" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3662" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="3663">
+      <c r="A3663">
+        <v>1765279134</v>
+      </c>
+      <c r="B3663" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3663" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3663" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3663" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3663" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664">
+        <v>1765279134</v>
+      </c>
+      <c r="B3664" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3664" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3664" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3664" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3664" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665">
+        <v>1765279134</v>
+      </c>
+      <c r="B3665" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3665" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3665" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3665" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3665" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666">
+        <v>1765279134</v>
+      </c>
+      <c r="B3666" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3666" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3666" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3666" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3666" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667">
+        <v>1765279134</v>
+      </c>
+      <c r="B3667" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3667" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3667" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3667" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3667" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668">
+        <v>1765279134</v>
+      </c>
+      <c r="B3668" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3668" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3668" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3668" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3668" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669">
+        <v>1765279134</v>
+      </c>
+      <c r="B3669" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3669" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3669" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3669" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3669" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670">
+        <v>1765279134</v>
+      </c>
+      <c r="B3670" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3670" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3670" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3670" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3670" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671">
+        <v>1765279134</v>
+      </c>
+      <c r="B3671" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3671" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3671" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3671" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3671" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672">
+        <v>1765279134</v>
+      </c>
+      <c r="B3672" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3672" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3672" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3672" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3672" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673">
+        <v>1765279134</v>
+      </c>
+      <c r="B3673" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3673" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3673" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3673" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3673" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3674">
+      <c r="A3674">
+        <v>1765279134</v>
+      </c>
+      <c r="B3674" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3674" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3674" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3674" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3674" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3675">
+      <c r="A3675">
+        <v>1765279134</v>
+      </c>
+      <c r="B3675" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3675" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3675" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3675" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G3675" t="s">
+        <v>1501</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db-source/evolution.xlsx
+++ b/public/data/db-source/evolution.xlsx
@@ -9542,6 +9542,75 @@
   </si>
   <si>
     <t>dataset/accident_route.xlsx</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_1</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_2</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_3</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_4</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_5</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_6</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_7</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_8</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_9</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_10</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_11</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_12</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_13</t>
+  </si>
+  <si>
+    <t>pop_region__population_totale---value_14</t>
+  </si>
+  <si>
+    <t>pop_region__type_region---urbaine</t>
+  </si>
+  <si>
+    <t>urbaine</t>
+  </si>
+  <si>
+    <t>pop_region__type_region---priurbaine</t>
+  </si>
+  <si>
+    <t>périurbaine</t>
+  </si>
+  <si>
+    <t>pop_region__type_region---rurale</t>
+  </si>
+  <si>
+    <t>rurale</t>
+  </si>
+  <si>
+    <t>pop_region__type_region---montagne</t>
+  </si>
+  <si>
+    <t>montagne</t>
   </si>
 </sst>
 </file>
@@ -76773,6 +76842,686 @@
         <v>1501</v>
       </c>
     </row>
+    <row r="3676">
+      <c r="A3676">
+        <v>1765633001</v>
+      </c>
+      <c r="B3676" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3676" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3676" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E3676" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3676" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3677">
+      <c r="A3677">
+        <v>1765633001</v>
+      </c>
+      <c r="B3677" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3677" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3677" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E3677" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3677" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3678">
+      <c r="A3678">
+        <v>1765633001</v>
+      </c>
+      <c r="B3678" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3678" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3678" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E3678" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3678" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3679">
+      <c r="A3679">
+        <v>1765633001</v>
+      </c>
+      <c r="B3679" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3679" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3679" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E3679" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3679" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3680">
+      <c r="A3680">
+        <v>1765633001</v>
+      </c>
+      <c r="B3680" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3680" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3680" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E3680" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3680" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3681">
+      <c r="A3681">
+        <v>1765633001</v>
+      </c>
+      <c r="B3681" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3681" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3681" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E3681" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3681" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3682">
+      <c r="A3682">
+        <v>1765633001</v>
+      </c>
+      <c r="B3682" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3682" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3682" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E3682" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3682" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3683">
+      <c r="A3683">
+        <v>1765633001</v>
+      </c>
+      <c r="B3683" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3683" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3683" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E3683" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3683" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3684">
+      <c r="A3684">
+        <v>1765633001</v>
+      </c>
+      <c r="B3684" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3684" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3684" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E3684" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3684" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3685">
+      <c r="A3685">
+        <v>1765633001</v>
+      </c>
+      <c r="B3685" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3685" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3685" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E3685" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3685" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3686">
+      <c r="A3686">
+        <v>1765633001</v>
+      </c>
+      <c r="B3686" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3686" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3686" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E3686" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3686" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3687">
+      <c r="A3687">
+        <v>1765633001</v>
+      </c>
+      <c r="B3687" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3687" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3687" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E3687" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3687" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3688">
+      <c r="A3688">
+        <v>1765633001</v>
+      </c>
+      <c r="B3688" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3688" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3688" t="s">
+        <v>3189</v>
+      </c>
+      <c r="E3688" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3688" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3689">
+      <c r="A3689">
+        <v>1765633001</v>
+      </c>
+      <c r="B3689" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3689" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3689" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E3689" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3689" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3690">
+      <c r="A3690">
+        <v>1765633001</v>
+      </c>
+      <c r="B3690" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3690" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3690" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E3690" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I3690" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3691">
+      <c r="A3691">
+        <v>1765633001</v>
+      </c>
+      <c r="B3691" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3691" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3691" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E3691" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I3691" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="3692">
+      <c r="A3692">
+        <v>1765633001</v>
+      </c>
+      <c r="B3692" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3692" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3692" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E3692" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I3692" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="3693">
+      <c r="A3693">
+        <v>1765633001</v>
+      </c>
+      <c r="B3693" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3693" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3693" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E3693" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I3693" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="3694">
+      <c r="A3694">
+        <v>1765633001</v>
+      </c>
+      <c r="B3694" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3694" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3694" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E3694" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I3694" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="3695">
+      <c r="A3695">
+        <v>1765633001</v>
+      </c>
+      <c r="B3695" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3695" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3695" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3695" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3695" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3696">
+      <c r="A3696">
+        <v>1765633001</v>
+      </c>
+      <c r="B3696" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3696" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3696" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3696" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3696" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3697">
+      <c r="A3697">
+        <v>1765633001</v>
+      </c>
+      <c r="B3697" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3697" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3697" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3697" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3697" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3698">
+      <c r="A3698">
+        <v>1765633001</v>
+      </c>
+      <c r="B3698" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3698" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3698" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3698" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3698" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3699">
+      <c r="A3699">
+        <v>1765633001</v>
+      </c>
+      <c r="B3699" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3699" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3699" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3699" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3699" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3700">
+      <c r="A3700">
+        <v>1765633001</v>
+      </c>
+      <c r="B3700" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3700" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3700" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3700" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3700" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3701">
+      <c r="A3701">
+        <v>1765633001</v>
+      </c>
+      <c r="B3701" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3701" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3701" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3701" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3701" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3702">
+      <c r="A3702">
+        <v>1765633001</v>
+      </c>
+      <c r="B3702" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3702" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3702" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3702" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3702" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3703">
+      <c r="A3703">
+        <v>1765633001</v>
+      </c>
+      <c r="B3703" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3703" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3703" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3703" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3703" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3704">
+      <c r="A3704">
+        <v>1765633001</v>
+      </c>
+      <c r="B3704" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3704" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3704" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3704" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3704" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3705">
+      <c r="A3705">
+        <v>1765633001</v>
+      </c>
+      <c r="B3705" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3705" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3705" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3705" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3705" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3706">
+      <c r="A3706">
+        <v>1765633001</v>
+      </c>
+      <c r="B3706" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3706" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3706" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3706" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3706" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3707">
+      <c r="A3707">
+        <v>1765633001</v>
+      </c>
+      <c r="B3707" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3707" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3707" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3707" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3707" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3708">
+      <c r="A3708">
+        <v>1765633001</v>
+      </c>
+      <c r="B3708" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3708" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3708" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3708" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3708" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3709">
+      <c r="A3709">
+        <v>1765633001</v>
+      </c>
+      <c r="B3709" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3709" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3709" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3709" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3709" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>